--- a/universidades.xlsx
+++ b/universidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper\TecHacker\UniWebScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4D1593-1590-48F6-A2F7-97CEBD5D3036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD162B-0D86-41C3-89AA-423E1176E852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="0" windowWidth="27135" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="27135" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universidades (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10589" uniqueCount="4302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10589" uniqueCount="4303">
   <si>
     <t>univ</t>
   </si>
@@ -12938,6 +12938,9 @@
   </si>
   <si>
     <t>UNIJUI</t>
+  </si>
+  <si>
+    <t>MACKENZIE</t>
   </si>
 </sst>
 </file>
@@ -13826,8 +13829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA1ABE0-D8D4-445F-85F1-60CB4071EF8C}">
   <dimension ref="A1:C1765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1373" workbookViewId="0">
-      <selection activeCell="B1392" sqref="B1392"/>
+    <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
+      <selection activeCell="B1526" sqref="B1526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32828,7 +32831,7 @@
         <v>3199</v>
       </c>
       <c r="B1727" t="s">
-        <v>3200</v>
+        <v>4302</v>
       </c>
       <c r="C1727" t="s">
         <v>5</v>
